--- a/EaPortal浏览器插件安装手册.xlsx
+++ b/EaPortal浏览器插件安装手册.xlsx
@@ -35,9 +35,6 @@
     <t>开启developer mode</t>
   </si>
   <si>
-    <t>解压extension.zip至特定目录</t>
-  </si>
-  <si>
     <t>点击上载插件</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>展开后的目录如下所示：</t>
+  </si>
+  <si>
+    <t>解压extension.zip， 并把解压出的extension的文件夹放到特定目录（保持该文件夹不被删除）</t>
   </si>
 </sst>
 </file>
@@ -157,8 +157,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>131637</xdr:rowOff>
     </xdr:to>
@@ -195,8 +195,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>303975</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142050</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>113690</xdr:rowOff>
     </xdr:to>
@@ -363,8 +363,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>45999</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>493674</xdr:colOff>
       <xdr:row>213</xdr:row>
       <xdr:rowOff>9180</xdr:rowOff>
     </xdr:to>
@@ -401,8 +401,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550833</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>388908</xdr:colOff>
       <xdr:row>219</xdr:row>
       <xdr:rowOff>85620</xdr:rowOff>
     </xdr:to>
@@ -439,8 +439,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>7899</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>455574</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>142333</xdr:rowOff>
     </xdr:to>
@@ -477,8 +477,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>55525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>503200</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>18455</xdr:rowOff>
     </xdr:to>
@@ -515,8 +515,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>484165</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>322240</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>189643</xdr:rowOff>
     </xdr:to>
@@ -553,8 +553,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>369887</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>207962</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>56606</xdr:rowOff>
     </xdr:to>
@@ -851,13 +851,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y141" sqref="Y141"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,27 +876,27 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/EaPortal浏览器插件安装手册.xlsx
+++ b/EaPortal浏览器插件安装手册.xlsx
@@ -32,9 +32,6 @@
     <t>输入chrome://extensions/</t>
   </si>
   <si>
-    <t>开启developer mode</t>
-  </si>
-  <si>
     <t>点击上载插件</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>解压extension.zip， 并把解压出的extension的文件夹放到特定目录（保持该文件夹不被删除）</t>
+  </si>
+  <si>
+    <t>点击developer mode</t>
   </si>
 </sst>
 </file>
@@ -871,32 +871,32 @@
     </row>
     <row r="51" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/EaPortal浏览器插件安装手册.xlsx
+++ b/EaPortal浏览器插件安装手册.xlsx
@@ -575,6 +575,44 @@
         <a:xfrm>
           <a:off x="57150" y="32613600"/>
           <a:ext cx="12704762" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>255802</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>113976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="43005375"/>
+          <a:ext cx="10980952" cy="2590476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
